--- a/spec/fixtures/dummy_sheet.xlsx
+++ b/spec/fixtures/dummy_sheet.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Vision" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="LRG" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="MRG" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="SRG" sheetId="4" r:id="rId6"/>
+    <sheet name="Vision" sheetId="1" r:id="rId1"/>
+    <sheet name="Long" sheetId="2" r:id="rId2"/>
+    <sheet name="Medium" sheetId="3" r:id="rId3"/>
+    <sheet name="Short" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -19,52 +27,52 @@
     <t>title</t>
   </si>
   <si>
+    <t>blurb</t>
+  </si>
+  <si>
     <t>what</t>
   </si>
   <si>
-    <t>blurb</t>
-  </si>
-  <si>
     <t>who</t>
   </si>
   <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>eiusmod tempor incididunt</t>
+  </si>
+  <si>
     <t>End poverty</t>
   </si>
   <si>
-    <t>when</t>
-  </si>
-  <si>
     <t>LRG_id</t>
   </si>
   <si>
     <t>voluptatem accusantium doloremque laudantium</t>
   </si>
   <si>
-    <t>eiusmod tempor incididunt</t>
-  </si>
-  <si>
     <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla</t>
   </si>
   <si>
     <t>doloremque laudantium</t>
   </si>
   <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
     <t>enim ad minima veniam, quis nostrum exercitationem</t>
   </si>
   <si>
-    <t>tomorrow</t>
+    <t>voluptas nulla pariatur</t>
   </si>
   <si>
     <t>natus error</t>
   </si>
   <si>
-    <t>voluptas nulla pariatur</t>
+    <t>Excepteur sint occaecat cupidatat non proiden</t>
   </si>
   <si>
     <t>yesterday</t>
-  </si>
-  <si>
-    <t>Excepteur sint occaecat cupidatat non proiden</t>
   </si>
   <si>
     <t>Et harum quidem</t>
@@ -103,16 +111,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Open Sans&quot;"/>
     </font>
@@ -122,7 +133,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -137,99 +148,408 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="58.14"/>
+    <col min="1" max="1" width="58.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.86"/>
-    <col customWidth="1" min="2" max="2" width="79.71"/>
-    <col customWidth="1" min="3" max="3" width="31.14"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="79.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -238,15 +558,15 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -256,58 +576,64 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="45.0"/>
-    <col customWidth="1" min="2" max="2" width="68.86"/>
-    <col customWidth="1" min="3" max="3" width="20.71"/>
-    <col customWidth="1" min="5" max="5" width="24.86"/>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="68.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -321,10 +647,10 @@
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -338,22 +664,28 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -361,16 +693,21 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/spec/fixtures/dummy_sheet.xlsx
+++ b/spec/fixtures/dummy_sheet.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Vision" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Long" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Medium" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Short" sheetId="4" r:id="rId6"/>
+    <sheet name="Vision" sheetId="1" r:id="rId1"/>
+    <sheet name="Long" sheetId="2" r:id="rId2"/>
+    <sheet name="Medium" sheetId="3" r:id="rId3"/>
+    <sheet name="Short" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,15 +45,9 @@
     <t>vision</t>
   </si>
   <si>
-    <t>LRG_id</t>
-  </si>
-  <si>
     <t>eiusmod tempor incididunt</t>
   </si>
   <si>
-    <t>voluptatem accusantium doloremque laudantium</t>
-  </si>
-  <si>
     <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla</t>
   </si>
   <si>
@@ -67,9 +69,6 @@
     <t>voluptas nulla pariatur</t>
   </si>
   <si>
-    <t>aliquam quaerat voluptatem</t>
-  </si>
-  <si>
     <t>Excepteur sint occaecat cupidatat non proiden</t>
   </si>
   <si>
@@ -88,9 +87,6 @@
     <t>this month</t>
   </si>
   <si>
-    <t>cum soluta nobis est eligendi</t>
-  </si>
-  <si>
     <t>s excepturi sint occaecati cupiditate non provident, similique sunt in culpa q</t>
   </si>
   <si>
@@ -101,23 +97,50 @@
   </si>
   <si>
     <t>MRG_id</t>
+  </si>
+  <si>
+    <t>cum soluta</t>
+  </si>
+  <si>
+    <t>voluptatem accusantium</t>
+  </si>
+  <si>
+    <t>aliquam</t>
+  </si>
+  <si>
+    <t>Higher_goal_title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Open Sans&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -125,7 +148,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -140,83 +163,408 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="58.14"/>
+    <col min="1" max="1" width="58.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.86"/>
-    <col customWidth="1" min="2" max="2" width="79.71"/>
-    <col customWidth="1" min="3" max="3" width="31.14"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="79.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -233,59 +581,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="45.0"/>
-    <col customWidth="1" min="2" max="2" width="68.86"/>
-    <col customWidth="1" min="3" max="3" width="20.71"/>
-    <col customWidth="1" min="5" max="5" width="24.86"/>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="68.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -299,73 +655,80 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -379,10 +742,15 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/spec/fixtures/dummy_sheet.xlsx
+++ b/spec/fixtures/dummy_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vision" sheetId="1" r:id="rId1"/>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
